--- a/medicine/Pharmacie/Acide_méfénamique/Acide_méfénamique.xlsx
+++ b/medicine/Pharmacie/Acide_méfénamique/Acide_méfénamique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Acide_m%C3%A9f%C3%A9namique</t>
+          <t>Acide_méfénamique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'acide méfénamique (Ponstyl, Ponstan, Ponstel) est un anti-inflammatoire non stéroïdien [2] de la famille des fénamates, à laquelle appartient par exemple l'acide niflumique.
+L'acide méfénamique (Ponstyl, Ponstan, Ponstel) est un anti-inflammatoire non stéroïdien  de la famille des fénamates, à laquelle appartient par exemple l'acide niflumique.
 Il est utilisé en clinique humaine pour traiter les douleurs dont les douleurs menstruelles (dysménorrhée) ou l'arthrite rhumatoïde.
 L'acide méfénamique peut être synthétisé à partir de l'acide orthochlorobenzoïque et l'orthoxylidine en chauffant et en présence de cuivre : on obtient en premier lieu le fénamate de potassium, puis par acidification on obtient l'acide méfénamique.
 </t>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Acide_m%C3%A9f%C3%A9namique</t>
+          <t>Acide_méfénamique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,10 +526,12 @@
           <t>Efficacité et mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une étude japonaise de 1978 portant sur la réponse à la douleur chez des volontaires masculins en bonne santé utilisant une stimulation électrique de l'index a étudié l'efficacité de l'acide méfénamique ainsi que d'autres substances. L'acide acétylsalicylique à des doses de 500 et 1000 mg, l'acide méfénamique à des doses de 250 et 500 mg et la pentazocine à une dose de 25 mg ont été efficaces pour soulager la douleur, avec des différences statistiquement significatives par rapport à un placebo [3].
-Comme d'autres membres de la classe des dérivés d'acides anthraniliques (ou phénamates), le produit inhibe les deux isoformes de la cyclooxygénase et empêche la formation de prostaglandines [4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une étude japonaise de 1978 portant sur la réponse à la douleur chez des volontaires masculins en bonne santé utilisant une stimulation électrique de l'index a étudié l'efficacité de l'acide méfénamique ainsi que d'autres substances. L'acide acétylsalicylique à des doses de 500 et 1000 mg, l'acide méfénamique à des doses de 250 et 500 mg et la pentazocine à une dose de 25 mg ont été efficaces pour soulager la douleur, avec des différences statistiquement significatives par rapport à un placebo .
+Comme d'autres membres de la classe des dérivés d'acides anthraniliques (ou phénamates), le produit inhibe les deux isoformes de la cyclooxygénase et empêche la formation de prostaglandines .
 </t>
         </is>
       </c>
